--- a/simulation_data/iterative_algorithm/i_error_level_11_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_11_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.86196281743987</v>
+        <v>90.3427427972258</v>
       </c>
       <c r="D2" t="n">
-        <v>12.75430394442138</v>
+        <v>12.19742211697312</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.43883215971799</v>
+        <v>89.6072282022393</v>
       </c>
       <c r="D3" t="n">
-        <v>13.17389519807926</v>
+        <v>11.83372618438287</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.08411804249241</v>
+        <v>87.038036454523</v>
       </c>
       <c r="D4" t="n">
-        <v>12.33541862325624</v>
+        <v>13.04063692984414</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.58414735518726</v>
+        <v>87.33969727317377</v>
       </c>
       <c r="D5" t="n">
-        <v>12.17715912460633</v>
+        <v>10.83442053547152</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.22141828496429</v>
+        <v>85.56892298905115</v>
       </c>
       <c r="D6" t="n">
-        <v>11.83160006974616</v>
+        <v>13.72014420551988</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.11066356745538</v>
+        <v>83.26303709855765</v>
       </c>
       <c r="D7" t="n">
-        <v>11.56400021452283</v>
+        <v>11.33571476848055</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.734035991365</v>
+        <v>83.41223275293896</v>
       </c>
       <c r="D8" t="n">
-        <v>14.27363243541991</v>
+        <v>13.54360821891676</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.02508715872145</v>
+        <v>83.08905680320616</v>
       </c>
       <c r="D9" t="n">
-        <v>11.78057323982277</v>
+        <v>11.64397988189749</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.48364231763634</v>
+        <v>80.245464075138</v>
       </c>
       <c r="D10" t="n">
-        <v>14.20696493125945</v>
+        <v>14.15113953950053</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.60754235890741</v>
+        <v>79.88687617526672</v>
       </c>
       <c r="D11" t="n">
-        <v>11.04503758434578</v>
+        <v>13.57388058206531</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.64128758821231</v>
+        <v>78.02055535904356</v>
       </c>
       <c r="D12" t="n">
-        <v>12.12182689811612</v>
+        <v>11.20301507901776</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.44864063201433</v>
+        <v>78.6366948060152</v>
       </c>
       <c r="D13" t="n">
-        <v>15.67968535939202</v>
+        <v>12.97326975730662</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.72455740372237</v>
+        <v>77.92770160907848</v>
       </c>
       <c r="D14" t="n">
-        <v>13.24470209100832</v>
+        <v>12.64837396307291</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.69557499325114</v>
+        <v>77.40512807077837</v>
       </c>
       <c r="D15" t="n">
-        <v>12.63098403577579</v>
+        <v>12.49069890977614</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.20287248516409</v>
+        <v>74.33245838667584</v>
       </c>
       <c r="D16" t="n">
-        <v>13.13262947829071</v>
+        <v>12.7046324720164</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.60957888628934</v>
+        <v>73.50684067950489</v>
       </c>
       <c r="D17" t="n">
-        <v>13.97299932542053</v>
+        <v>13.0887501967711</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.87176870538472</v>
+        <v>72.68244093328136</v>
       </c>
       <c r="D18" t="n">
-        <v>13.57447077414777</v>
+        <v>12.90046863879558</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.04259010342625</v>
+        <v>73.72763822390635</v>
       </c>
       <c r="D19" t="n">
-        <v>13.66235022159178</v>
+        <v>11.43630613633565</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.33976482066501</v>
+        <v>72.95563428980245</v>
       </c>
       <c r="D20" t="n">
-        <v>13.61563882513735</v>
+        <v>12.07310406272056</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>68.80354719739134</v>
+        <v>72.85861506980264</v>
       </c>
       <c r="D21" t="n">
-        <v>13.32038783369049</v>
+        <v>11.47981921612841</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.74914955902909</v>
+        <v>70.55453325237025</v>
       </c>
       <c r="D22" t="n">
-        <v>12.99616370257485</v>
+        <v>11.64680694219806</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.38321906365391</v>
+        <v>66.47270664659177</v>
       </c>
       <c r="D23" t="n">
-        <v>14.70942285004562</v>
+        <v>12.76363530312172</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.19605718313647</v>
+        <v>68.7792733934843</v>
       </c>
       <c r="D24" t="n">
-        <v>12.61077512153661</v>
+        <v>10.27472206257486</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.68808514895011</v>
+        <v>64.51218070253586</v>
       </c>
       <c r="D25" t="n">
-        <v>13.67375219761506</v>
+        <v>11.84893499124682</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.18818966327839</v>
+        <v>64.67000447235992</v>
       </c>
       <c r="D26" t="n">
-        <v>11.90813215622666</v>
+        <v>12.46810498758993</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.31091475718408</v>
+        <v>64.68494091698186</v>
       </c>
       <c r="D27" t="n">
-        <v>12.33859161356253</v>
+        <v>13.99742033806866</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.74740033865001</v>
+        <v>64.33759925152749</v>
       </c>
       <c r="D28" t="n">
-        <v>14.81887619506342</v>
+        <v>11.90399574686235</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.65920027009474</v>
+        <v>62.70474682764345</v>
       </c>
       <c r="D29" t="n">
-        <v>14.50373048212167</v>
+        <v>12.3876847039443</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.95766852755706</v>
+        <v>60.29717503205006</v>
       </c>
       <c r="D30" t="n">
-        <v>14.45829377993369</v>
+        <v>14.28662386294011</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.51573532254793</v>
+        <v>60.80001798661213</v>
       </c>
       <c r="D31" t="n">
-        <v>12.15022760234783</v>
+        <v>11.89469478105605</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.3363762790652</v>
+        <v>58.58501241166667</v>
       </c>
       <c r="D32" t="n">
-        <v>11.0688282887796</v>
+        <v>12.97600651280847</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.6087459680695</v>
+        <v>59.20424659359242</v>
       </c>
       <c r="D33" t="n">
-        <v>12.81691062737338</v>
+        <v>12.88220578701399</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.61303796292457</v>
+        <v>55.53598166980938</v>
       </c>
       <c r="D34" t="n">
-        <v>14.49495224112495</v>
+        <v>12.73347756615707</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.84155284195872</v>
+        <v>55.61727274209598</v>
       </c>
       <c r="D35" t="n">
-        <v>14.45633975335669</v>
+        <v>12.0560517567012</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.08177756810048</v>
+        <v>55.67161483686033</v>
       </c>
       <c r="D36" t="n">
-        <v>13.25047309882016</v>
+        <v>13.53765102246639</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.39755437637103</v>
+        <v>53.23048270735194</v>
       </c>
       <c r="D37" t="n">
-        <v>12.07911710956115</v>
+        <v>12.45908892668586</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.3824457279133</v>
+        <v>55.13043369828106</v>
       </c>
       <c r="D38" t="n">
-        <v>12.37276951368711</v>
+        <v>11.1909136941731</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>56.08854575075804</v>
+        <v>54.07913375353558</v>
       </c>
       <c r="D39" t="n">
-        <v>11.5627832183332</v>
+        <v>12.24434464520754</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.37802608148308</v>
+        <v>50.95176493862397</v>
       </c>
       <c r="D40" t="n">
-        <v>14.16344553246582</v>
+        <v>12.68632800027108</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>54.30609674148266</v>
+        <v>50.19008945750306</v>
       </c>
       <c r="D41" t="n">
-        <v>13.13116161127527</v>
+        <v>14.02639846928554</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.23028704796663</v>
+        <v>50.12023412240902</v>
       </c>
       <c r="D42" t="n">
-        <v>15.0217968950523</v>
+        <v>11.38211367154863</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.10041967064224</v>
+        <v>46.49459007719779</v>
       </c>
       <c r="D43" t="n">
-        <v>14.03520507292574</v>
+        <v>14.71016789652631</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.74379043990569</v>
+        <v>48.1892419110448</v>
       </c>
       <c r="D44" t="n">
-        <v>14.4323161886101</v>
+        <v>13.55408557841391</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.45919178956024</v>
+        <v>45.1605651838454</v>
       </c>
       <c r="D45" t="n">
-        <v>11.60959073441868</v>
+        <v>12.70385896880234</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.74492686690549</v>
+        <v>44.23709986135728</v>
       </c>
       <c r="D46" t="n">
-        <v>12.38233169869657</v>
+        <v>13.1439038037321</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.39289419769634</v>
+        <v>45.49667432455579</v>
       </c>
       <c r="D47" t="n">
-        <v>12.82083751205178</v>
+        <v>11.17597660092309</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.04287440819863</v>
+        <v>42.50174396547063</v>
       </c>
       <c r="D48" t="n">
-        <v>13.60222204788915</v>
+        <v>12.74132805271241</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.74977567717306</v>
+        <v>40.99722632993008</v>
       </c>
       <c r="D49" t="n">
-        <v>12.07360855663872</v>
+        <v>13.47078472438947</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.11474362635425</v>
+        <v>41.46828307742586</v>
       </c>
       <c r="D50" t="n">
-        <v>11.08764730690348</v>
+        <v>12.82995626851057</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.39043683752653</v>
+        <v>38.33592903357538</v>
       </c>
       <c r="D51" t="n">
-        <v>13.16276790257534</v>
+        <v>12.98781410410302</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.02682426993974</v>
+        <v>41.08634472687661</v>
       </c>
       <c r="D52" t="n">
-        <v>13.10154203837366</v>
+        <v>12.60447758872175</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.83762520431753</v>
+        <v>38.08321368845149</v>
       </c>
       <c r="D53" t="n">
-        <v>12.32777236905087</v>
+        <v>13.21109903006887</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.24062508910901</v>
+        <v>38.06289750792475</v>
       </c>
       <c r="D54" t="n">
-        <v>14.10284197703769</v>
+        <v>12.32296684414257</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.04089508858995</v>
+        <v>39.1740806472385</v>
       </c>
       <c r="D55" t="n">
-        <v>13.02815594267184</v>
+        <v>14.26328966205426</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.68643951733831</v>
+        <v>36.19490537305903</v>
       </c>
       <c r="D56" t="n">
-        <v>12.93924695650255</v>
+        <v>13.07614356867193</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>31.65843278201462</v>
+        <v>34.99773174743388</v>
       </c>
       <c r="D57" t="n">
-        <v>11.08570304140688</v>
+        <v>11.68323078463726</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.29867955244961</v>
+        <v>32.59383903427167</v>
       </c>
       <c r="D58" t="n">
-        <v>12.12998481147069</v>
+        <v>12.83956213120188</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.52592959588711</v>
+        <v>33.42003170531994</v>
       </c>
       <c r="D59" t="n">
-        <v>12.34479679465935</v>
+        <v>12.25626589328363</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.80473263198569</v>
+        <v>31.61609781195617</v>
       </c>
       <c r="D60" t="n">
-        <v>11.7537999088718</v>
+        <v>12.59411377426363</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.04722741747064</v>
+        <v>32.31188841170632</v>
       </c>
       <c r="D61" t="n">
-        <v>14.00794060427238</v>
+        <v>12.03070341330884</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.73546314095163</v>
+        <v>28.6761191033494</v>
       </c>
       <c r="D62" t="n">
-        <v>13.24362714172424</v>
+        <v>14.4122134441273</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.29435761405234</v>
+        <v>28.61311384093515</v>
       </c>
       <c r="D63" t="n">
-        <v>12.35174584929182</v>
+        <v>12.49195473340247</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.50245905701005</v>
+        <v>28.92312477118039</v>
       </c>
       <c r="D64" t="n">
-        <v>12.69820891071691</v>
+        <v>14.38736753413835</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>24.37237016188688</v>
+        <v>27.62713335946865</v>
       </c>
       <c r="D65" t="n">
-        <v>12.45223960963774</v>
+        <v>12.18904926490711</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.59769596804504</v>
+        <v>25.91671741883171</v>
       </c>
       <c r="D66" t="n">
-        <v>12.53982539757738</v>
+        <v>14.08899135171679</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.03077130444672</v>
+        <v>25.18319092538162</v>
       </c>
       <c r="D67" t="n">
-        <v>14.52840048167794</v>
+        <v>13.73763958729716</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.96210927124829</v>
+        <v>23.35114619097073</v>
       </c>
       <c r="D68" t="n">
-        <v>11.3534497645731</v>
+        <v>13.03223168724879</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.15832363759354</v>
+        <v>20.49082977966446</v>
       </c>
       <c r="D69" t="n">
-        <v>13.18916199212367</v>
+        <v>13.65984825247361</v>
       </c>
     </row>
   </sheetData>
